--- a/assets/docs/Encuesta.xlsx
+++ b/assets/docs/Encuesta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estrella\Desktop\Estrella\Red Social\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreEG\Documents\PRODUCTO FINAL SPRINT 3\social-network\assets\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
   <si>
     <t>ALUMNAS</t>
   </si>
@@ -203,27 +203,12 @@
     <t>Eventos, noticias destacadas y de mi interés. También me gustaría ver que compartan sus inquietudes , tal vez pueda yo ayudar en algo y claro también me puedan ayudar a mi</t>
   </si>
   <si>
-    <t xml:space="preserve"> Compartir nuevo aprendizaje mejorando código y aprendiendo nuevos lenguajes. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claro q si, es una oportunidad para compartir y fortalecer el lazo q nos une el código. </t>
-  </si>
-  <si>
     <t>Podría compartir mis nuevas experiencias q surgieron gracias al trabajo.</t>
   </si>
   <si>
     <t>Me hubiese gustado ponerle más punche y haber aprendido más cosas llevar inglés orientado a programación,etc.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Obvio que sería fantástico poder contar con una red así, podríamos unirnos más internamente y compartir cosas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me gustaría ver notas o blogs tipo médium compartiendo nuevos conocimientos. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Postearía mis nuevos aprendizajes.</t>
-  </si>
-  <si>
     <t>Todo lo referente a programación web, Ux Ui etc.</t>
   </si>
   <si>
@@ -237,6 +222,102 @@
   </si>
   <si>
     <t>Me hubiese gustado la opción de otras ramas aparte del front end y ux design, Ya que el tema tecnológico es mucho más amplio. Me hubiese gustado que hayan más talleres como el de IBM y que hayan más cupos para que todas las interesadas puedan ir. Aparte más asesoría personal psicológicos a las personas que no tienen la parte Hse tan desarrollada.</t>
+  </si>
+  <si>
+    <t> Compartir nuevo aprendizaje mejorando código y aprendiendo nuevos lenguajes. </t>
+  </si>
+  <si>
+    <t>estar todo el dia con mis compañeras</t>
+  </si>
+  <si>
+    <t>estar con las chicas</t>
+  </si>
+  <si>
+    <t>el aprender diario</t>
+  </si>
+  <si>
+    <t>Claro q si, es una oportunidad para compartir y fortalecer el lazo q nos une el código. </t>
+  </si>
+  <si>
+    <t>si un poco</t>
+  </si>
+  <si>
+    <t>no se muy bien pero experiencias</t>
+  </si>
+  <si>
+    <t>las reflexiones de si quieren hacer de esto su vida</t>
+  </si>
+  <si>
+    <t>el empoderamiento femenino</t>
+  </si>
+  <si>
+    <t>eventos quisiera mas</t>
+  </si>
+  <si>
+    <t>que haya algo mas referido al diseño</t>
+  </si>
+  <si>
+    <t>poder elegir llevar ux y ui</t>
+  </si>
+  <si>
+    <t> Obvio que sería fantástico poder contar con una red así, podríamos unirnos más internamente y compartir cosas.</t>
+  </si>
+  <si>
+    <t>que es facebook no otra</t>
+  </si>
+  <si>
+    <t>curiosearia un poco</t>
+  </si>
+  <si>
+    <t>genial</t>
+  </si>
+  <si>
+    <t>Me gustaría ver notas o blogs tipo médium compartiendo nuevos conocimientos. </t>
+  </si>
+  <si>
+    <t>no tengo pensado</t>
+  </si>
+  <si>
+    <t>otros trabajos</t>
+  </si>
+  <si>
+    <t>fotos de estados y avances o logros de las chicas</t>
+  </si>
+  <si>
+    <t> Postearía mis nuevos aprendizajes.</t>
+  </si>
+  <si>
+    <t>memes u ofertas laborales</t>
+  </si>
+  <si>
+    <t>memes</t>
+  </si>
+  <si>
+    <t>eventos para poder ver a las chicas porue no hay forma de ver a las otras chicas con las que no tengo mucho contacto</t>
+  </si>
+  <si>
+    <t>noticias eventos ofertas laborales</t>
+  </si>
+  <si>
+    <t>Los profes, el cariño de Laboratoria hacia mí como estudiante, el 'clima', mis amigas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sería muy lindo! Hemos convivido prácticamente 6 meses y ahora por falta de tiempo y/o coordinación no nos reunimos nuevamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ofertas de trabajo, conocimiento, reencuentros, etc </t>
+  </si>
+  <si>
+    <t>Super! Si bien es cierto, tenemos un grupo en Fb siento que sería mejor una herramienta netamente para la comunicación de las egresadas</t>
+  </si>
+  <si>
+    <t>Una sección de 'últimas noticias', artículos interesantes, oportunidades, etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eventos tecnológicos, ofertas de trabajo, artículos interesantes, eventos</t>
+  </si>
+  <si>
+    <t>Que realmente haya una comunicación entre las diferentes egresadas y se pierda ese 'miedo' a compartir</t>
   </si>
 </sst>
 </file>
@@ -598,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,12 +692,14 @@
     <col min="3" max="3" width="110.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="114.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>17</v>
@@ -656,7 +739,7 @@
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -759,7 +842,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -770,7 +853,7 @@
         <v>27</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -806,7 +889,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
@@ -817,7 +900,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
@@ -825,63 +908,153 @@
         <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
